--- a/weights.xlsx
+++ b/weights.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hitendrachaturvedi/ASU Dropbox/Hitendra Chaturvedi/Mac/Documents/SupScribe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\toxic_clauses_detector_in_business_contract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62568BC-CDA3-0C4A-80DB-5501DF0A0420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5CC05-7A65-4E51-809F-779084D45AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{8EE0755B-9804-1E4F-B213-67E3DC1E8097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8EE0755B-9804-1E4F-B213-67E3DC1E8097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Insurance</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Probability of happening</t>
+  </si>
+  <si>
+    <t>Toxicity</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>buyer</t>
   </si>
 </sst>
 </file>
@@ -145,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,20 +450,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E28848-4A57-8946-8CF0-53E3884D1625}">
-  <dimension ref="D3:F15"/>
+  <dimension ref="D2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -464,8 +481,11 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -475,8 +495,12 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>E4*F4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -486,8 +510,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="0">E5*F5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>2</v>
       </c>
@@ -497,8 +525,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -508,8 +540,12 @@
       <c r="F7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -519,8 +555,12 @@
       <c r="F8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -530,8 +570,12 @@
       <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -541,8 +585,12 @@
       <c r="F10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -552,8 +600,12 @@
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -563,8 +615,12 @@
       <c r="F12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -574,19 +630,27 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -595,6 +659,10 @@
       </c>
       <c r="F15">
         <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\toxic_clauses_detector_in_business_contract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5CC05-7A65-4E51-809F-779084D45AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1E344-7D96-4487-A6A8-F8D69029BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8EE0755B-9804-1E4F-B213-67E3DC1E8097}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Insurance</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>Toxicity</t>
-  </si>
-  <si>
-    <t>seller</t>
-  </si>
-  <si>
-    <t>buyer</t>
   </si>
 </sst>
 </file>
@@ -450,217 +444,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E28848-4A57-8946-8CF0-53E3884D1625}">
-  <dimension ref="D2:G15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">B3*C3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="G4">
-        <f>E4*F4</f>
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G15" si="0">E5*F5</f>
+      <c r="D12">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\toxic_clauses_detector_in_business_contract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\business-contract-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1E344-7D96-4487-A6A8-F8D69029BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B1D28-356A-416B-986A-C66020F3834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8EE0755B-9804-1E4F-B213-67E3DC1E8097}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EE0755B-9804-1E4F-B213-67E3DC1E8097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Indeminification</t>
   </si>
   <si>
-    <t xml:space="preserve">Default </t>
-  </si>
-  <si>
     <t>Penalties</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Toxicity</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -458,16 +458,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>8</v>
